--- a/nr-mv-MS/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-mv-MS/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
